--- a/teaching/traditional_assets/database/data/qatar/qatar_healthcare_products.xlsx
+++ b/teaching/traditional_assets/database/data/qatar/qatar_healthcare_products.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.12</v>
+        <v>0.0278</v>
       </c>
       <c r="G2">
-        <v>-0.3373540856031129</v>
+        <v>-0.08226950354609927</v>
       </c>
       <c r="H2">
-        <v>-0.3373540856031129</v>
+        <v>-0.08226950354609927</v>
       </c>
       <c r="I2">
-        <v>-1.265748291507151</v>
+        <v>-0.2671394799054373</v>
       </c>
       <c r="J2">
-        <v>-1.265748291507151</v>
+        <v>-0.2671394799054373</v>
       </c>
       <c r="K2">
-        <v>-4.34</v>
+        <v>-1.62</v>
       </c>
       <c r="L2">
-        <v>-1.688715953307393</v>
+        <v>-0.3829787234042553</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.187</v>
+        <v>1.21</v>
       </c>
       <c r="V2">
-        <v>0.01010810810810811</v>
+        <v>0.01704225352112676</v>
       </c>
       <c r="W2">
-        <v>-0.3263157894736842</v>
+        <v>-0.1664953751284687</v>
       </c>
       <c r="X2">
-        <v>0.1894537842419088</v>
+        <v>0.08209565768076103</v>
       </c>
       <c r="Y2">
-        <v>-0.515769573715593</v>
+        <v>-0.2485910328092297</v>
       </c>
       <c r="Z2">
-        <v>0.05561462590327658</v>
+        <v>0.1003463491009157</v>
       </c>
       <c r="AA2">
-        <v>-0.07039411771988169</v>
+        <v>-0.02680647150922807</v>
       </c>
       <c r="AB2">
-        <v>0.0909857361240982</v>
+        <v>0.06334338498171473</v>
       </c>
       <c r="AC2">
-        <v>-0.1613798538439799</v>
+        <v>-0.09014985649094279</v>
       </c>
       <c r="AD2">
-        <v>32.7</v>
+        <v>37.7</v>
       </c>
       <c r="AE2">
-        <v>0.02986554586689361</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>32.72986554586689</v>
+        <v>37.7</v>
       </c>
       <c r="AG2">
-        <v>32.5428655458669</v>
+        <v>36.49</v>
       </c>
       <c r="AH2">
-        <v>0.638882518958855</v>
+        <v>0.3468261269549218</v>
       </c>
       <c r="AI2">
-        <v>0.7854564711719659</v>
+        <v>0.8231441048034934</v>
       </c>
       <c r="AJ2">
-        <v>0.6375595334988396</v>
+        <v>0.3394734393897106</v>
       </c>
       <c r="AK2">
-        <v>0.7844893335510973</v>
+        <v>0.8183449203857367</v>
       </c>
       <c r="AL2">
-        <v>1.04</v>
+        <v>0.718</v>
       </c>
       <c r="AM2">
-        <v>1.04</v>
+        <v>0.718</v>
       </c>
       <c r="AN2">
-        <v>-30.36211699164345</v>
+        <v>100</v>
       </c>
       <c r="AO2">
-        <v>-3.125</v>
+        <v>-1.573816155988858</v>
       </c>
       <c r="AP2">
-        <v>-30.21621684853007</v>
+        <v>96.79045092838197</v>
       </c>
       <c r="AQ2">
-        <v>-3.125</v>
+        <v>-1.573816155988858</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.12</v>
+        <v>0.0278</v>
       </c>
       <c r="G3">
-        <v>-0.3373540856031129</v>
+        <v>-0.08226950354609927</v>
       </c>
       <c r="H3">
-        <v>-0.3373540856031129</v>
+        <v>-0.08226950354609927</v>
       </c>
       <c r="I3">
-        <v>-1.265748291507151</v>
+        <v>-0.2671394799054373</v>
       </c>
       <c r="J3">
-        <v>-1.265748291507151</v>
+        <v>-0.2671394799054373</v>
       </c>
       <c r="K3">
-        <v>-4.34</v>
+        <v>-1.62</v>
       </c>
       <c r="L3">
-        <v>-1.688715953307393</v>
+        <v>-0.3829787234042553</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.187</v>
+        <v>1.21</v>
       </c>
       <c r="V3">
-        <v>0.01010810810810811</v>
+        <v>0.01704225352112676</v>
       </c>
       <c r="W3">
-        <v>-0.3263157894736842</v>
+        <v>-0.1664953751284687</v>
       </c>
       <c r="X3">
-        <v>0.1894537842419088</v>
+        <v>0.08209565768076103</v>
       </c>
       <c r="Y3">
-        <v>-0.515769573715593</v>
+        <v>-0.2485910328092297</v>
       </c>
       <c r="Z3">
-        <v>0.05561462590327658</v>
+        <v>0.1003463491009157</v>
       </c>
       <c r="AA3">
-        <v>-0.07039411771988169</v>
+        <v>-0.02680647150922807</v>
       </c>
       <c r="AB3">
-        <v>0.0909857361240982</v>
+        <v>0.06334338498171473</v>
       </c>
       <c r="AC3">
-        <v>-0.1613798538439799</v>
+        <v>-0.09014985649094279</v>
       </c>
       <c r="AD3">
-        <v>32.7</v>
+        <v>37.7</v>
       </c>
       <c r="AE3">
-        <v>0.02986554586689361</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>32.72986554586689</v>
+        <v>37.7</v>
       </c>
       <c r="AG3">
-        <v>32.5428655458669</v>
+        <v>36.49</v>
       </c>
       <c r="AH3">
-        <v>0.638882518958855</v>
+        <v>0.3468261269549218</v>
       </c>
       <c r="AI3">
-        <v>0.7854564711719659</v>
+        <v>0.8231441048034934</v>
       </c>
       <c r="AJ3">
-        <v>0.6375595334988396</v>
+        <v>0.3394734393897106</v>
       </c>
       <c r="AK3">
-        <v>0.7844893335510973</v>
+        <v>0.8183449203857367</v>
       </c>
       <c r="AL3">
-        <v>1.04</v>
+        <v>0.718</v>
       </c>
       <c r="AM3">
-        <v>1.04</v>
+        <v>0.718</v>
       </c>
       <c r="AN3">
-        <v>-30.36211699164345</v>
+        <v>100</v>
       </c>
       <c r="AO3">
-        <v>-3.125</v>
+        <v>-1.573816155988858</v>
       </c>
       <c r="AP3">
-        <v>-30.21621684853007</v>
+        <v>96.79045092838197</v>
       </c>
       <c r="AQ3">
-        <v>-3.125</v>
+        <v>-1.573816155988858</v>
       </c>
     </row>
   </sheetData>
